--- a/账单.xlsx
+++ b/账单.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="29">
   <si>
     <t>操作人</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -37,14 +37,6 @@
   </si>
   <si>
     <t>详单</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DRV8801 5.00*10
-LM2596-3.3 3.50*5
-LM2596-5.5 3.50*5
-STM32F407VET6 37.00*5
-8MHz晶振 0.30*10</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -92,6 +84,64 @@
     <t>N20减速电机 21.78*5
 LM298N模块 7.90*6
 NRF24L01功率加强版 4.37*10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张寒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DRV8801 5.00*10
+LM2596-3.3 3.50*5
+LM2596-5.5 3.50*5
+STM32F407VET6 37.00*5
+8MHz晶振 0.30*10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2015.10.31</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张寒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NUCLEO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NUCLEO F411 80*1
+NUCLEO F446 90*1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2015.10.29</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无需报销</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>模块</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>红外避障模块 4.73*10
+GY-87 10DOF 传感器模块 46.8*2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2015.10.30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>正品进口德国18650 21.58*3
+智能正反充18650双槽充电器 18.8*3
+松下18650 3200mAh动力电池 32*3
+插针式18650单节电池盒 2.5*10
+插针式18650三节电池盒 4.5*2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -462,7 +512,7 @@
   <dimension ref="A1:F705"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -488,50 +538,50 @@
         <v>5</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="43.2" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C2" s="2">
         <v>200</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C3" s="2">
         <v>324.3</v>
       </c>
       <c r="D3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>16</v>
-      </c>
       <c r="F3" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="72" x14ac:dyDescent="0.25">
@@ -545,28 +595,67 @@
         <v>283</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F4" s="2"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="2"/>
+    <row r="5" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="2">
+        <v>190</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" s="2">
+        <v>145.9</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>27</v>
+      </c>
       <c r="F6" s="2"/>
+    </row>
+    <row r="7" spans="1:6" ht="72" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="2">
+        <v>18650</v>
+      </c>
+      <c r="C7" s="2">
+        <v>243</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
